--- a/REGULAR/CASUAL-REGULAR FINAL/ANACAY, ANICETA.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/ANACAY, ANICETA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167C50C1-5461-49A6-BBD4-F7FFB3D8D4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="357">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1102,12 +1101,15 @@
   </si>
   <si>
     <t>6/6-9,13-16,19-23,26-27,29,30</t>
+  </si>
+  <si>
+    <t>7/3-7/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1511,6 +1513,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,9 +1548,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1807,7 +1809,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1824,26 +1826,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K712" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K712" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K712"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2150,7 +2152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2159,84 +2161,84 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A657" activePane="bottomLeft"/>
       <selection activeCell="J4" sqref="J4:K4"/>
-      <selection pane="bottomLeft" activeCell="H666" sqref="H666"/>
+      <selection pane="bottomLeft" activeCell="I667" sqref="I667"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="24"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="60"/>
+      <c r="K2" s="61"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="62"/>
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="26" t="s">
         <v>18</v>
@@ -2244,7 +2246,7 @@
       <c r="I5" s="26"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="30"/>
@@ -2257,24 +2259,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="51"/>
       <c r="B9" s="52" t="s">
         <v>23</v>
@@ -2328,12 +2330,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>183.75</v>
+        <v>178.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>74</v>
       </c>
@@ -2350,7 +2352,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
         <v>76</v>
       </c>
@@ -2365,7 +2367,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>33604</v>
       </c>
@@ -2393,7 +2395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>33635</v>
@@ -2420,7 +2422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A23" si="0">EDATE(A13,1)</f>
         <v>33664</v>
@@ -2451,7 +2453,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="0"/>
         <v>33695</v>
@@ -2482,7 +2484,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="0"/>
         <v>33725</v>
@@ -2511,7 +2513,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>33756</v>
@@ -2540,7 +2542,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>33786</v>
@@ -2569,7 +2571,7 @@
       </c>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f t="shared" si="0"/>
         <v>33817</v>
@@ -2596,7 +2598,7 @@
       </c>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f t="shared" si="0"/>
         <v>33848</v>
@@ -2623,7 +2625,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>33878</v>
@@ -2650,7 +2652,7 @@
       </c>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>33909</v>
@@ -2677,7 +2679,7 @@
       </c>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="0"/>
         <v>33939</v>
@@ -2698,7 +2700,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>92</v>
       </c>
@@ -2716,7 +2718,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f>EDATE(A23,1)</f>
         <v>33970</v>
@@ -2743,7 +2745,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f>EDATE(A25,1)</f>
         <v>34001</v>
@@ -2768,7 +2770,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" ref="A27:A36" si="1">EDATE(A26,1)</f>
         <v>34029</v>
@@ -2797,7 +2799,7 @@
       </c>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="1"/>
         <v>34060</v>
@@ -2818,7 +2820,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="1"/>
         <v>34090</v>
@@ -2845,7 +2847,7 @@
       </c>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="1"/>
         <v>34121</v>
@@ -2872,7 +2874,7 @@
       </c>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="1"/>
         <v>34151</v>
@@ -2899,7 +2901,7 @@
       </c>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="1"/>
         <v>34182</v>
@@ -2926,7 +2928,7 @@
       </c>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="1"/>
         <v>34213</v>
@@ -2947,7 +2949,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" si="1"/>
         <v>34243</v>
@@ -2974,7 +2976,7 @@
       </c>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="1"/>
         <v>34274</v>
@@ -3001,7 +3003,7 @@
       </c>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="1"/>
         <v>34304</v>
@@ -3026,7 +3028,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="47" t="s">
         <v>93</v>
       </c>
@@ -3044,7 +3046,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f>EDATE(A36,1)</f>
         <v>34335</v>
@@ -3069,7 +3071,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f>EDATE(A38,1)</f>
         <v>34366</v>
@@ -3096,7 +3098,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" ref="A40:A49" si="2">EDATE(A39,1)</f>
         <v>34394</v>
@@ -3117,7 +3119,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="2"/>
         <v>34425</v>
@@ -3138,7 +3140,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="2"/>
         <v>34455</v>
@@ -3159,7 +3161,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="2"/>
         <v>34486</v>
@@ -3180,7 +3182,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <f t="shared" si="2"/>
         <v>34516</v>
@@ -3201,7 +3203,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f t="shared" si="2"/>
         <v>34547</v>
@@ -3222,7 +3224,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="2"/>
         <v>34578</v>
@@ -3243,7 +3245,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="2"/>
         <v>34608</v>
@@ -3264,7 +3266,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="2"/>
         <v>34639</v>
@@ -3285,7 +3287,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="2"/>
         <v>34669</v>
@@ -3312,7 +3314,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>94</v>
       </c>
@@ -3330,7 +3332,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f>EDATE(A49,1)</f>
         <v>34700</v>
@@ -3357,7 +3359,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f>EDATE(A51,1)</f>
         <v>34731</v>
@@ -3378,7 +3380,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" ref="A53:A62" si="3">EDATE(A52,1)</f>
         <v>34759</v>
@@ -3399,7 +3401,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="3"/>
         <v>34790</v>
@@ -3420,7 +3422,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f t="shared" si="3"/>
         <v>34820</v>
@@ -3441,7 +3443,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="3"/>
         <v>34851</v>
@@ -3462,7 +3464,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f t="shared" si="3"/>
         <v>34881</v>
@@ -3483,7 +3485,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f t="shared" si="3"/>
         <v>34912</v>
@@ -3504,7 +3506,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f t="shared" si="3"/>
         <v>34943</v>
@@ -3525,7 +3527,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" si="3"/>
         <v>34973</v>
@@ -3546,7 +3548,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="3"/>
         <v>35004</v>
@@ -3567,7 +3569,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" si="3"/>
         <v>35034</v>
@@ -3588,7 +3590,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
         <v>95</v>
       </c>
@@ -3606,7 +3608,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f>EDATE(A62,1)</f>
         <v>35065</v>
@@ -3627,7 +3629,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f>EDATE(A64,1)</f>
         <v>35096</v>
@@ -3648,7 +3650,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" ref="A66:A74" si="4">EDATE(A65,1)</f>
         <v>35125</v>
@@ -3669,7 +3671,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="4"/>
         <v>35156</v>
@@ -3694,7 +3696,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f t="shared" si="4"/>
         <v>35186</v>
@@ -3719,7 +3721,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="4"/>
         <v>35217</v>
@@ -3740,7 +3742,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f t="shared" si="4"/>
         <v>35247</v>
@@ -3761,7 +3763,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f t="shared" si="4"/>
         <v>35278</v>
@@ -3788,7 +3790,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f t="shared" si="4"/>
         <v>35309</v>
@@ -3813,7 +3815,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" si="4"/>
         <v>35339</v>
@@ -3838,7 +3840,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="4"/>
         <v>35370</v>
@@ -3865,7 +3867,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f>EDATE(A74,1)</f>
         <v>35400</v>
@@ -3892,7 +3894,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>96</v>
       </c>
@@ -3910,7 +3912,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f>EDATE(A75,1)</f>
         <v>35431</v>
@@ -3939,7 +3941,7 @@
       </c>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f>EDATE(A77,1)</f>
         <v>35462</v>
@@ -3968,7 +3970,7 @@
       </c>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" ref="A79:A88" si="5">EDATE(A78,1)</f>
         <v>35490</v>
@@ -3997,7 +3999,7 @@
       </c>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="5"/>
         <v>35521</v>
@@ -4028,7 +4030,7 @@
       </c>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="5"/>
         <v>35551</v>
@@ -4059,7 +4061,7 @@
       </c>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f t="shared" si="5"/>
         <v>35582</v>
@@ -4088,7 +4090,7 @@
       </c>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <f t="shared" si="5"/>
         <v>35612</v>
@@ -4111,7 +4113,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <f t="shared" si="5"/>
         <v>35643</v>
@@ -4132,7 +4134,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f t="shared" si="5"/>
         <v>35674</v>
@@ -4153,7 +4155,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <f t="shared" si="5"/>
         <v>35704</v>
@@ -4174,7 +4176,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f t="shared" si="5"/>
         <v>35735</v>
@@ -4195,7 +4197,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f t="shared" si="5"/>
         <v>35765</v>
@@ -4216,7 +4218,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>108</v>
       </c>
@@ -4234,7 +4236,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f>EDATE(A88,1)</f>
         <v>35796</v>
@@ -4255,7 +4257,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f>EDATE(A90,1)</f>
         <v>35827</v>
@@ -4276,7 +4278,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" ref="A92:A100" si="6">EDATE(A91,1)</f>
         <v>35855</v>
@@ -4297,7 +4299,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="6"/>
         <v>35886</v>
@@ -4318,7 +4320,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="6"/>
         <v>35916</v>
@@ -4339,7 +4341,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="6"/>
         <v>35947</v>
@@ -4360,7 +4362,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="6"/>
         <v>35977</v>
@@ -4381,7 +4383,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="6"/>
         <v>36008</v>
@@ -4402,7 +4404,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="6"/>
         <v>36039</v>
@@ -4423,7 +4425,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f t="shared" si="6"/>
         <v>36069</v>
@@ -4444,7 +4446,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f t="shared" si="6"/>
         <v>36100</v>
@@ -4465,7 +4467,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f>EDATE(A100,1)</f>
         <v>36130</v>
@@ -4490,7 +4492,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
         <v>109</v>
       </c>
@@ -4508,7 +4510,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f>EDATE(A101,1)</f>
         <v>36161</v>
@@ -4529,7 +4531,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f>EDATE(A103,1)</f>
         <v>36192</v>
@@ -4550,7 +4552,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" ref="A105:A111" si="7">EDATE(A104,1)</f>
         <v>36220</v>
@@ -4571,7 +4573,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f t="shared" si="7"/>
         <v>36251</v>
@@ -4592,7 +4594,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="7"/>
         <v>36281</v>
@@ -4613,7 +4615,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="7"/>
         <v>36312</v>
@@ -4634,7 +4636,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="7"/>
         <v>36342</v>
@@ -4655,7 +4657,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="7"/>
         <v>36373</v>
@@ -4680,7 +4682,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="7"/>
         <v>36404</v>
@@ -4707,7 +4709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>44</v>
@@ -4726,7 +4728,7 @@
         <v>36426</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>44</v>
@@ -4745,7 +4747,7 @@
         <v>36433</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>112</v>
@@ -4762,7 +4764,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f>EDATE(A111,1)</f>
         <v>36434</v>
@@ -4789,7 +4791,7 @@
         <v>36458</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>113</v>
@@ -4808,7 +4810,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f>EDATE(A115,1)</f>
         <v>36465</v>
@@ -4835,7 +4837,7 @@
         <v>36467</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>116</v>
@@ -4856,7 +4858,7 @@
         <v>36475</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>117</v>
@@ -4873,7 +4875,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f>EDATE(A117,1)</f>
         <v>36495</v>
@@ -4900,7 +4902,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>87</v>
@@ -4924,7 +4926,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>119</v>
@@ -4944,7 +4946,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="47" t="s">
         <v>120</v>
       </c>
@@ -4962,7 +4964,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>36526</v>
       </c>
@@ -4988,7 +4990,7 @@
         <v>36535</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>77</v>
@@ -5007,7 +5009,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>121</v>
@@ -5026,7 +5028,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>122</v>
@@ -5043,7 +5045,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A124,1)</f>
         <v>36557</v>
@@ -5072,7 +5074,7 @@
         <v>36566</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>126</v>
@@ -5089,7 +5091,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f>EDATE(A128,1)</f>
         <v>36586</v>
@@ -5116,7 +5118,7 @@
         <v>36586</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>47</v>
@@ -5133,7 +5135,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>45</v>
@@ -5152,7 +5154,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>127</v>
@@ -5169,7 +5171,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f>EDATE(A130,1)</f>
         <v>36617</v>
@@ -5196,7 +5198,7 @@
         <v>36619</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>44</v>
@@ -5215,7 +5217,7 @@
         <v>36621</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>47</v>
@@ -5232,7 +5234,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>130</v>
@@ -5249,7 +5251,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f>EDATE(A134,1)</f>
         <v>36647</v>
@@ -5276,7 +5278,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>133</v>
@@ -5293,7 +5295,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>47</v>
@@ -5310,7 +5312,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <f>EDATE(A138,1)</f>
         <v>36678</v>
@@ -5337,7 +5339,7 @@
         <v>36699</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>44</v>
@@ -5356,7 +5358,7 @@
         <v>36707</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>133</v>
@@ -5373,7 +5375,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f>EDATE(A141,1)</f>
         <v>36708</v>
@@ -5402,7 +5404,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>121</v>
@@ -5421,7 +5423,7 @@
         <v>36734</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>135</v>
@@ -5438,7 +5440,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f>EDATE(A144,1)</f>
         <v>36739</v>
@@ -5465,7 +5467,7 @@
         <v>36749</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>116</v>
@@ -5486,7 +5488,7 @@
         <v>36752</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>77</v>
@@ -5505,7 +5507,7 @@
         <v>36756</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>121</v>
@@ -5524,7 +5526,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>138</v>
@@ -5541,7 +5543,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="48"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f>EDATE(A147,1)</f>
         <v>36770</v>
@@ -5570,7 +5572,7 @@
         <v>36798</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>140</v>
@@ -5587,7 +5589,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <f>EDATE(A152,1)</f>
         <v>36800</v>
@@ -5614,7 +5616,7 @@
         <v>36815</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>141</v>
@@ -5631,7 +5633,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <f t="shared" ref="A156" si="8">EDATE(A154,1)</f>
         <v>36831</v>
@@ -5658,7 +5660,7 @@
         <v>36845</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>48</v>
@@ -5677,7 +5679,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>142</v>
@@ -5694,7 +5696,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A156,1)</f>
         <v>36861</v>
@@ -5721,7 +5723,7 @@
         <v>36874</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>50</v>
@@ -5743,7 +5745,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>121</v>
@@ -5765,7 +5767,7 @@
         <v>36889</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>144</v>
@@ -5785,7 +5787,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="47" t="s">
         <v>145</v>
       </c>
@@ -5803,7 +5805,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>36892</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>36893</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>118</v>
@@ -5850,7 +5852,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>83</v>
@@ -5869,7 +5871,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>146</v>
@@ -5886,7 +5888,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f>EDATE(A164,1)</f>
         <v>36923</v>
@@ -5907,7 +5909,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f t="shared" ref="A169" si="9">EDATE(A168,1)</f>
         <v>36951</v>
@@ -5934,7 +5936,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>44</v>
@@ -5953,7 +5955,7 @@
         <v>36970</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>47</v>
@@ -5970,7 +5972,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>50</v>
@@ -5989,7 +5991,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EDATE(A169,1)</f>
         <v>36982</v>
@@ -6013,7 +6015,7 @@
         <v>37011</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>152</v>
@@ -6030,7 +6032,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f>EDATE(A173,1)</f>
         <v>37012</v>
@@ -6055,7 +6057,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>47</v>
@@ -6072,7 +6074,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>48</v>
@@ -6091,7 +6093,7 @@
         <v>37049</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>48</v>
@@ -6110,7 +6112,7 @@
         <v>37046</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>153</v>
@@ -6127,7 +6129,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f>EDATE(A175,1)</f>
         <v>37043</v>
@@ -6154,7 +6156,7 @@
         <v>37068</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>121</v>
@@ -6173,7 +6175,7 @@
         <v>37069</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>44</v>
@@ -6192,7 +6194,7 @@
         <v>37071</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>44</v>
@@ -6211,7 +6213,7 @@
         <v>37074</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>156</v>
@@ -6228,7 +6230,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <f>EDATE(A180,1)</f>
         <v>37073</v>
@@ -6255,7 +6257,7 @@
         <v>37095</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>116</v>
@@ -6276,7 +6278,7 @@
         <v>37099</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>157</v>
@@ -6293,7 +6295,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <f>EDATE(A185,1)</f>
         <v>37104</v>
@@ -6320,7 +6322,7 @@
         <v>37121</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>77</v>
@@ -6339,7 +6341,7 @@
         <v>37133</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>158</v>
@@ -6356,7 +6358,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="48"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <f>EDATE(A188,1)</f>
         <v>37135</v>
@@ -6383,7 +6385,7 @@
         <v>37151</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>116</v>
@@ -6404,7 +6406,7 @@
         <v>37148</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>48</v>
@@ -6423,7 +6425,7 @@
         <v>37159</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <f>EDATE(A191,1)</f>
         <v>37165</v>
@@ -6452,7 +6454,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>77</v>
@@ -6471,7 +6473,7 @@
         <v>37170</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>77</v>
@@ -6490,7 +6492,7 @@
         <v>37169</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>48</v>
@@ -6507,7 +6509,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>48</v>
@@ -6526,7 +6528,7 @@
         <v>37195</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>159</v>
@@ -6543,7 +6545,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f>EDATE(A194,1)</f>
         <v>37196</v>
@@ -6570,7 +6572,7 @@
         <v>37203</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>136</v>
@@ -6591,7 +6593,7 @@
         <v>37222</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f>EDATE(A200,1)</f>
         <v>37226</v>
@@ -6616,7 +6618,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="48"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="47" t="s">
         <v>162</v>
       </c>
@@ -6634,7 +6636,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>37257</v>
       </c>
@@ -6660,7 +6662,7 @@
         <v>37258</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>44</v>
@@ -6679,7 +6681,7 @@
         <v>37273</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>116</v>
@@ -6700,7 +6702,7 @@
         <v>37286</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>163</v>
@@ -6717,7 +6719,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="48"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <f>EDATE(A204,1)</f>
         <v>37288</v>
@@ -6746,7 +6748,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>47</v>
@@ -6763,7 +6765,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>48</v>
@@ -6782,7 +6784,7 @@
         <v>37292</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>77</v>
@@ -6801,7 +6803,7 @@
         <v>37300</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>48</v>
@@ -6820,7 +6822,7 @@
         <v>37306</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>47</v>
@@ -6837,7 +6839,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>47</v>
@@ -6854,7 +6856,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>77</v>
@@ -6873,7 +6875,7 @@
         <v>37315</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>164</v>
@@ -6890,7 +6892,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f>EDATE(A208,1)</f>
         <v>37316</v>
@@ -6915,7 +6917,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <f t="shared" ref="A218:A227" si="10">EDATE(A217,1)</f>
         <v>37347</v>
@@ -6936,7 +6938,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <f t="shared" si="10"/>
         <v>37377</v>
@@ -6957,7 +6959,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f t="shared" si="10"/>
         <v>37408</v>
@@ -6980,7 +6982,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>44</v>
@@ -6995,7 +6997,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <f>EDATE(A220,1)</f>
         <v>37438</v>
@@ -7022,7 +7024,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>50</v>
@@ -7041,7 +7043,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>118</v>
@@ -7062,7 +7064,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>170</v>
@@ -7079,7 +7081,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f>EDATE(A222,1)</f>
         <v>37469</v>
@@ -7100,7 +7102,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <f t="shared" si="10"/>
         <v>37500</v>
@@ -7127,7 +7129,7 @@
         <v>37523</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>44</v>
@@ -7146,7 +7148,7 @@
         <v>37531</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f>EDATE(A227,1)</f>
         <v>37530</v>
@@ -7173,7 +7175,7 @@
         <v>37543</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>116</v>
@@ -7194,7 +7196,7 @@
         <v>37551</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>45</v>
@@ -7213,7 +7215,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A229,1)</f>
         <v>37561</v>
@@ -7240,7 +7242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>176</v>
@@ -7261,7 +7263,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>177</v>
@@ -7278,7 +7280,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f>EDATE(A232,1)</f>
         <v>37591</v>
@@ -7305,7 +7307,7 @@
         <v>37589</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>118</v>
@@ -7329,7 +7331,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="47" t="s">
         <v>181</v>
       </c>
@@ -7347,7 +7349,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>37622</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>37629</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>116</v>
@@ -7394,7 +7396,7 @@
         <v>37635</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23"/>
       <c r="B240" s="20" t="s">
         <v>182</v>
@@ -7411,7 +7413,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f>EDATE(A238,1)</f>
         <v>37653</v>
@@ -7438,7 +7440,7 @@
         <v>37664</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>116</v>
@@ -7459,7 +7461,7 @@
         <v>37683</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>47</v>
@@ -7476,7 +7478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>183</v>
@@ -7493,7 +7495,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f>EDATE(A241,1)</f>
         <v>37681</v>
@@ -7520,7 +7522,7 @@
         <v>37699</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>47</v>
@@ -7537,7 +7539,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>184</v>
@@ -7554,7 +7556,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <f>EDATE(A245,1)</f>
         <v>37712</v>
@@ -7581,7 +7583,7 @@
         <v>37733</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>118</v>
@@ -7602,7 +7604,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <f>EDATE(A248,1)</f>
         <v>37742</v>
@@ -7627,7 +7629,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f t="shared" ref="A251:A256" si="11">EDATE(A250,1)</f>
         <v>37773</v>
@@ -7654,7 +7656,7 @@
         <v>37795</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <f t="shared" si="11"/>
         <v>37803</v>
@@ -7681,7 +7683,7 @@
         <v>37811</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>186</v>
@@ -7698,7 +7700,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A252,1)</f>
         <v>37834</v>
@@ -7723,7 +7725,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f t="shared" si="11"/>
         <v>37865</v>
@@ -7748,7 +7750,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f t="shared" si="11"/>
         <v>37895</v>
@@ -7775,7 +7777,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>44</v>
@@ -7794,7 +7796,7 @@
         <v>37919</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>189</v>
@@ -7811,7 +7813,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A256,1)</f>
         <v>37926</v>
@@ -7838,7 +7840,7 @@
         <v>37935</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>44</v>
@@ -7857,7 +7859,7 @@
         <v>37942</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>191</v>
@@ -7874,7 +7876,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f>EDATE(A259,1)</f>
         <v>37956</v>
@@ -7901,7 +7903,7 @@
         <v>37959</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>192</v>
@@ -7921,7 +7923,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="47" t="s">
         <v>193</v>
       </c>
@@ -7939,7 +7941,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>37987</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>194</v>
@@ -7982,7 +7984,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>47</v>
@@ -7999,7 +8001,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f>EDATE(A265,1)</f>
         <v>38018</v>
@@ -8026,7 +8028,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>195</v>
@@ -8043,7 +8045,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <f>EDATE(A268,1)</f>
         <v>38047</v>
@@ -8070,7 +8072,7 @@
         <v>38054</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>47</v>
@@ -8087,7 +8089,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>201</v>
@@ -8104,7 +8106,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f>EDATE(A270,1)</f>
         <v>38078</v>
@@ -8131,7 +8133,7 @@
         <v>38076</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>44</v>
@@ -8148,7 +8150,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>47</v>
@@ -8165,7 +8167,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>44</v>
@@ -8184,7 +8186,7 @@
         <v>38079</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>44</v>
@@ -8203,7 +8205,7 @@
         <v>38083</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>50</v>
@@ -8222,7 +8224,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>203</v>
@@ -8239,7 +8241,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A273,1)</f>
         <v>38108</v>
@@ -8266,7 +8268,7 @@
         <v>38119</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>116</v>
@@ -8287,7 +8289,7 @@
         <v>38138</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>206</v>
@@ -8304,7 +8306,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f>EDATE(A280,1)</f>
         <v>38139</v>
@@ -8331,7 +8333,7 @@
         <v>38166</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>207</v>
@@ -8348,7 +8350,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>44</v>
@@ -8367,7 +8369,7 @@
         <v>38187</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f>EDATE(A283,1)</f>
         <v>38169</v>
@@ -8392,7 +8394,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <f t="shared" ref="A287:A292" si="12">EDATE(A286,1)</f>
         <v>38200</v>
@@ -8419,7 +8421,7 @@
         <v>38204</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>44</v>
@@ -8438,7 +8440,7 @@
         <v>38208</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>48</v>
@@ -8457,7 +8459,7 @@
         <v>38226</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>209</v>
@@ -8474,7 +8476,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f>EDATE(A287,1)</f>
         <v>38231</v>
@@ -8499,7 +8501,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <f t="shared" si="12"/>
         <v>38261</v>
@@ -8526,7 +8528,7 @@
         <v>38266</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>211</v>
@@ -8543,7 +8545,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="48"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f>EDATE(A292,1)</f>
         <v>38292</v>
@@ -8570,7 +8572,7 @@
         <v>38303</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>118</v>
@@ -8591,7 +8593,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>212</v>
@@ -8608,7 +8610,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A294,1)</f>
         <v>38322</v>
@@ -8635,7 +8637,7 @@
         <v>38341</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>214</v>
@@ -8655,7 +8657,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="47" t="s">
         <v>215</v>
       </c>
@@ -8673,7 +8675,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>38353</v>
       </c>
@@ -8699,7 +8701,7 @@
         <v>38351</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>216</v>
@@ -8716,7 +8718,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <f>EDATE(A300,1)</f>
         <v>38384</v>
@@ -8743,7 +8745,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>47</v>
@@ -8760,7 +8762,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A302,1)</f>
         <v>38412</v>
@@ -8787,7 +8789,7 @@
         <v>38414</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>44</v>
@@ -8806,7 +8808,7 @@
         <v>38446</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>116</v>
@@ -8827,7 +8829,7 @@
         <v>38453</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23"/>
       <c r="B307" s="20" t="s">
         <v>47</v>
@@ -8844,7 +8846,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>219</v>
@@ -8861,7 +8863,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A304,1)</f>
         <v>38443</v>
@@ -8888,7 +8890,7 @@
         <v>38460</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>47</v>
@@ -8905,7 +8907,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>221</v>
@@ -8922,7 +8924,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <f>EDATE(A309,1)</f>
         <v>38473</v>
@@ -8949,7 +8951,7 @@
         <v>38478</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23"/>
       <c r="B313" s="20" t="s">
         <v>44</v>
@@ -8968,7 +8970,7 @@
         <v>38498</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>48</v>
@@ -8987,7 +8989,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>44</v>
@@ -9006,7 +9008,7 @@
         <v>38503</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>223</v>
@@ -9023,7 +9025,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="48"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f>EDATE(A312,1)</f>
         <v>38504</v>
@@ -9052,7 +9054,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>45</v>
@@ -9071,7 +9073,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>44</v>
@@ -9090,7 +9092,7 @@
         <v>38530</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>224</v>
@@ -9107,7 +9109,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23">
         <f>EDATE(A317,1)</f>
         <v>38534</v>
@@ -9134,7 +9136,7 @@
         <v>38548</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>116</v>
@@ -9155,7 +9157,7 @@
         <v>38553</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>226</v>
@@ -9172,7 +9174,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f>EDATE(A321,1)</f>
         <v>38565</v>
@@ -9199,7 +9201,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>228</v>
@@ -9216,7 +9218,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f>EDATE(A324,1)</f>
         <v>38596</v>
@@ -9245,7 +9247,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>230</v>
@@ -9262,7 +9264,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <f>EDATE(A326,1)</f>
         <v>38626</v>
@@ -9289,7 +9291,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>50</v>
@@ -9308,7 +9310,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>44</v>
@@ -9329,7 +9331,7 @@
         <v>38636</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>56</v>
@@ -9348,7 +9350,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>231</v>
@@ -9365,7 +9367,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f>EDATE(A328,1)</f>
         <v>38657</v>
@@ -9394,7 +9396,7 @@
         <v>38670</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>44</v>
@@ -9413,7 +9415,7 @@
         <v>38685</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>235</v>
@@ -9430,7 +9432,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="48"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f t="shared" ref="A336" si="13">EDATE(A333,1)</f>
         <v>38687</v>
@@ -9459,7 +9461,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>236</v>
@@ -9479,7 +9481,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="47" t="s">
         <v>238</v>
       </c>
@@ -9497,7 +9499,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>38718</v>
       </c>
@@ -9517,7 +9519,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <f>EDATE(A339,1)</f>
         <v>38749</v>
@@ -9538,7 +9540,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f t="shared" ref="A341:A360" si="14">EDATE(A340,1)</f>
         <v>38777</v>
@@ -9565,7 +9567,7 @@
         <v>38784</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>47</v>
@@ -9582,7 +9584,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>38808</v>
@@ -9607,7 +9609,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>44</v>
@@ -9626,7 +9628,7 @@
         <v>38815</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <f>EDATE(A343,1)</f>
         <v>38838</v>
@@ -9647,7 +9649,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f t="shared" si="14"/>
         <v>38869</v>
@@ -9674,7 +9676,7 @@
         <v>38879</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>44</v>
@@ -9693,7 +9695,7 @@
         <v>38891</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>239</v>
@@ -9710,7 +9712,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f>EDATE(A346,1)</f>
         <v>38899</v>
@@ -9735,7 +9737,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>135</v>
@@ -9752,7 +9754,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f>EDATE(A349,1)</f>
         <v>38930</v>
@@ -9779,7 +9781,7 @@
         <v>38941</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>242</v>
@@ -9798,7 +9800,7 @@
         <v>38945</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>118</v>
@@ -9819,7 +9821,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23">
         <f>EDATE(A351,1)</f>
         <v>38961</v>
@@ -9846,7 +9848,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>244</v>
@@ -9863,7 +9865,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f>EDATE(A354,1)</f>
         <v>38991</v>
@@ -9890,7 +9892,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>45</v>
@@ -9909,7 +9911,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>246</v>
@@ -9926,7 +9928,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <f>EDATE(A356,1)</f>
         <v>39022</v>
@@ -9955,7 +9957,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <f t="shared" si="14"/>
         <v>39052</v>
@@ -9980,7 +9982,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="47" t="s">
         <v>250</v>
       </c>
@@ -9998,7 +10000,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <v>39083</v>
       </c>
@@ -10018,7 +10020,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f>EDATE(A362,1)</f>
         <v>39114</v>
@@ -10043,7 +10045,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <f t="shared" ref="A364:A375" si="15">EDATE(A363,1)</f>
         <v>39142</v>
@@ -10068,7 +10070,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f t="shared" si="15"/>
         <v>39173</v>
@@ -10089,7 +10091,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f t="shared" si="15"/>
         <v>39203</v>
@@ -10110,7 +10112,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f t="shared" si="15"/>
         <v>39234</v>
@@ -10137,7 +10139,7 @@
         <v>39261</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <f t="shared" si="15"/>
         <v>39264</v>
@@ -10164,7 +10166,7 @@
         <v>39285</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <f t="shared" si="15"/>
         <v>39295</v>
@@ -10189,7 +10191,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>44</v>
@@ -10208,7 +10210,7 @@
         <v>39326</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <f>EDATE(A369,1)</f>
         <v>39326</v>
@@ -10235,7 +10237,7 @@
         <v>39344</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>80</v>
@@ -10254,7 +10256,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>98</v>
@@ -10273,7 +10275,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <f>EDATE(A371,1)</f>
         <v>39356</v>
@@ -10300,7 +10302,7 @@
         <v>39374</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <f t="shared" si="15"/>
         <v>39387</v>
@@ -10327,7 +10329,7 @@
         <v>39425</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>62</v>
@@ -10346,7 +10348,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <f>EDATE(A375,1)</f>
         <v>39417</v>
@@ -10373,7 +10375,7 @@
         <v>39428</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="47" t="s">
         <v>257</v>
       </c>
@@ -10391,7 +10393,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>39448</v>
       </c>
@@ -10411,7 +10413,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <f>EDATE(A379,1)</f>
         <v>39479</v>
@@ -10432,7 +10434,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <f t="shared" ref="A381:A398" si="16">EDATE(A380,1)</f>
         <v>39508</v>
@@ -10457,7 +10459,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>44</v>
@@ -10476,7 +10478,7 @@
         <v>39521</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>47</v>
@@ -10493,7 +10495,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>47</v>
@@ -10510,7 +10512,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23"/>
       <c r="B385" s="20" t="s">
         <v>258</v>
@@ -10527,7 +10529,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <f>EDATE(A381,1)</f>
         <v>39539</v>
@@ -10548,7 +10550,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <f t="shared" si="16"/>
         <v>39569</v>
@@ -10575,7 +10577,7 @@
         <v>39615</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>262</v>
@@ -10592,7 +10594,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <f>EDATE(A387,1)</f>
         <v>39600</v>
@@ -10619,7 +10621,7 @@
         <v>39606</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>242</v>
@@ -10638,7 +10640,7 @@
         <v>39631</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>263</v>
@@ -10655,7 +10657,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <f>EDATE(A389,1)</f>
         <v>39630</v>
@@ -10682,7 +10684,7 @@
         <v>39645</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>44</v>
@@ -10701,7 +10703,7 @@
         <v>39656</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23"/>
       <c r="B394" s="20" t="s">
         <v>264</v>
@@ -10718,7 +10720,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f>EDATE(A392,1)</f>
         <v>39661</v>
@@ -10745,7 +10747,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <f t="shared" si="16"/>
         <v>39692</v>
@@ -10772,7 +10774,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <f t="shared" si="16"/>
         <v>39722</v>
@@ -10793,7 +10795,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <f t="shared" si="16"/>
         <v>39753</v>
@@ -10814,7 +10816,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <f>EDATE(A398,1)</f>
         <v>39783</v>
@@ -10839,7 +10841,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="47" t="s">
         <v>266</v>
       </c>
@@ -10857,7 +10859,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <v>39814</v>
       </c>
@@ -10881,7 +10883,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f>EDATE(A401,1)</f>
         <v>39845</v>
@@ -10906,7 +10908,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <f t="shared" ref="A403:A413" si="17">EDATE(A402,1)</f>
         <v>39873</v>
@@ -10931,7 +10933,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>177</v>
@@ -10948,7 +10950,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <f>EDATE(A403,1)</f>
         <v>39904</v>
@@ -10973,7 +10975,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <f t="shared" si="17"/>
         <v>39934</v>
@@ -11000,7 +11002,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <f t="shared" si="17"/>
         <v>39965</v>
@@ -11025,7 +11027,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <f t="shared" si="17"/>
         <v>39995</v>
@@ -11050,7 +11052,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>270</v>
@@ -11067,7 +11069,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>47</v>
@@ -11084,7 +11086,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <f>EDATE(A408,1)</f>
         <v>40026</v>
@@ -11105,7 +11107,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <f t="shared" si="17"/>
         <v>40057</v>
@@ -11130,7 +11132,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f t="shared" si="17"/>
         <v>40087</v>
@@ -11151,7 +11153,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f>EDATE(A413,1)</f>
         <v>40118</v>
@@ -11178,7 +11180,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>265</v>
@@ -11197,7 +11199,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <f>EDATE(A414,1)</f>
         <v>40148</v>
@@ -11218,7 +11220,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="47" t="s">
         <v>277</v>
       </c>
@@ -11236,7 +11238,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>40179</v>
       </c>
@@ -11256,7 +11258,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <f>EDATE(A418,1)</f>
         <v>40210</v>
@@ -11277,7 +11279,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <f t="shared" ref="A420:A427" si="18">EDATE(A419,1)</f>
         <v>40238</v>
@@ -11302,7 +11304,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>47</v>
@@ -11319,7 +11321,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <f>EDATE(A420,1)</f>
         <v>40269</v>
@@ -11346,7 +11348,7 @@
         <v>40298</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>169</v>
@@ -11363,7 +11365,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <f>EDATE(A422,1)</f>
         <v>40299</v>
@@ -11388,7 +11390,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23">
         <f t="shared" si="18"/>
         <v>40330</v>
@@ -11413,7 +11415,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <f t="shared" si="18"/>
         <v>40360</v>
@@ -11440,7 +11442,7 @@
         <v>40382</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <f t="shared" si="18"/>
         <v>40391</v>
@@ -11465,7 +11467,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>44</v>
@@ -11484,7 +11486,7 @@
         <v>40404</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>62</v>
@@ -11503,7 +11505,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <f>EDATE(A427,1)</f>
         <v>40422</v>
@@ -11530,7 +11532,7 @@
         <v>40449</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>284</v>
@@ -11547,7 +11549,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="48"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>40452</v>
@@ -11574,7 +11576,7 @@
         <v>40464</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>285</v>
@@ -11591,7 +11593,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <f>EDATE(A432,1)</f>
         <v>40483</v>
@@ -11618,7 +11620,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>286</v>
@@ -11635,7 +11637,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>80</v>
@@ -11654,7 +11656,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <f>EDATE(A434,1)</f>
         <v>40513</v>
@@ -11675,7 +11677,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="47" t="s">
         <v>289</v>
       </c>
@@ -11693,7 +11695,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <v>40544</v>
       </c>
@@ -11717,7 +11719,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <f>EDATE(A439,1)</f>
         <v>40575</v>
@@ -11742,7 +11744,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <f t="shared" ref="A441:A462" si="19">EDATE(A440,1)</f>
         <v>40603</v>
@@ -11769,7 +11771,7 @@
         <v>40618</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>47</v>
@@ -11786,7 +11788,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>292</v>
@@ -11803,7 +11805,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f>EDATE(A441,1)</f>
         <v>40634</v>
@@ -11828,7 +11830,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <f t="shared" si="19"/>
         <v>40664</v>
@@ -11853,7 +11855,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <f t="shared" si="19"/>
         <v>40695</v>
@@ -11880,7 +11882,7 @@
         <v>40704</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>265</v>
@@ -11899,7 +11901,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>47</v>
@@ -11916,7 +11918,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23"/>
       <c r="B449" s="20" t="s">
         <v>50</v>
@@ -11935,7 +11937,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23"/>
       <c r="B450" s="20" t="s">
         <v>298</v>
@@ -11952,7 +11954,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <f>EDATE(A446,1)</f>
         <v>40725</v>
@@ -11977,7 +11979,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <f t="shared" si="19"/>
         <v>40756</v>
@@ -12004,7 +12006,7 @@
         <v>40758</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>242</v>
@@ -12023,7 +12025,7 @@
         <v>40765</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23"/>
       <c r="B454" s="20" t="s">
         <v>50</v>
@@ -12042,7 +12044,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>47</v>
@@ -12059,7 +12061,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>300</v>
@@ -12076,7 +12078,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <f>EDATE(A452,1)</f>
         <v>40787</v>
@@ -12103,7 +12105,7 @@
         <v>40810</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>242</v>
@@ -12122,7 +12124,7 @@
         <v>40821</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23"/>
       <c r="B459" s="20" t="s">
         <v>44</v>
@@ -12141,7 +12143,7 @@
         <v>40830</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>303</v>
@@ -12158,7 +12160,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="48"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23">
         <f>EDATE(A457,1)</f>
         <v>40817</v>
@@ -12183,7 +12185,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <f t="shared" si="19"/>
         <v>40848</v>
@@ -12210,7 +12212,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23" t="s">
         <v>171</v>
       </c>
@@ -12229,7 +12231,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <f>EDATE(A462,1)</f>
         <v>40878</v>
@@ -12256,7 +12258,7 @@
         <v>40900</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="47" t="s">
         <v>307</v>
       </c>
@@ -12274,7 +12276,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <v>40909</v>
       </c>
@@ -12300,7 +12302,7 @@
         <v>40922</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>44</v>
@@ -12319,7 +12321,7 @@
         <v>40950</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23">
         <f>EDATE(A466,1)</f>
         <v>40940</v>
@@ -12340,7 +12342,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f t="shared" ref="A469:A480" si="20">EDATE(A468,1)</f>
         <v>40969</v>
@@ -12367,7 +12369,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23"/>
       <c r="B470" s="20" t="s">
         <v>47</v>
@@ -12384,7 +12386,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <f>EDATE(A469,1)</f>
         <v>41000</v>
@@ -12405,7 +12407,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <f t="shared" si="20"/>
         <v>41030</v>
@@ -12426,7 +12428,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <f t="shared" si="20"/>
         <v>41061</v>
@@ -12447,7 +12449,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23">
         <f t="shared" si="20"/>
         <v>41091</v>
@@ -12472,7 +12474,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23"/>
       <c r="B475" s="20" t="s">
         <v>50</v>
@@ -12491,7 +12493,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <f>EDATE(A474,1)</f>
         <v>41122</v>
@@ -12518,7 +12520,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23">
         <f t="shared" si="20"/>
         <v>41153</v>
@@ -12539,7 +12541,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <f t="shared" si="20"/>
         <v>41183</v>
@@ -12566,7 +12568,7 @@
         <v>41210</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <f t="shared" si="20"/>
         <v>41214</v>
@@ -12591,7 +12593,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23">
         <f t="shared" si="20"/>
         <v>41244</v>
@@ -12616,7 +12618,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="47" t="s">
         <v>315</v>
       </c>
@@ -12634,7 +12636,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <v>41275</v>
       </c>
@@ -12654,7 +12656,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23">
         <f>EDATE(A482,1)</f>
         <v>41306</v>
@@ -12681,7 +12683,7 @@
         <v>41341</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23"/>
       <c r="B484" s="20" t="s">
         <v>44</v>
@@ -12700,7 +12702,7 @@
         <v>41318</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23"/>
       <c r="B485" s="20" t="s">
         <v>47</v>
@@ -12717,7 +12719,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <f>EDATE(A483,1)</f>
         <v>41334</v>
@@ -12744,7 +12746,7 @@
         <v>41346</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>44</v>
@@ -12763,7 +12765,7 @@
         <v>41335</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>47</v>
@@ -12780,7 +12782,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <f>EDATE(A486,1)</f>
         <v>41365</v>
@@ -12801,7 +12803,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <f t="shared" ref="A490:A504" si="21">EDATE(A489,1)</f>
         <v>41395</v>
@@ -12828,7 +12830,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23"/>
       <c r="B491" s="20" t="s">
         <v>44</v>
@@ -12847,7 +12849,7 @@
         <v>41409</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23"/>
       <c r="B492" s="20" t="s">
         <v>242</v>
@@ -12866,7 +12868,7 @@
         <v>41419</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23"/>
       <c r="B493" s="20" t="s">
         <v>44</v>
@@ -12885,7 +12887,7 @@
         <v>41412</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23">
         <f>EDATE(A490,1)</f>
         <v>41426</v>
@@ -12912,7 +12914,7 @@
         <v>41427</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23">
         <f t="shared" si="21"/>
         <v>41456</v>
@@ -12939,7 +12941,7 @@
         <v>41467</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23"/>
       <c r="B496" s="20" t="s">
         <v>50</v>
@@ -12958,7 +12960,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>47</v>
@@ -12975,7 +12977,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <f>EDATE(A495,1)</f>
         <v>41487</v>
@@ -13002,7 +13004,7 @@
         <v>41493</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23">
         <f t="shared" si="21"/>
         <v>41518</v>
@@ -13029,7 +13031,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23"/>
       <c r="B500" s="20" t="s">
         <v>44</v>
@@ -13048,7 +13050,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23"/>
       <c r="B501" s="20" t="s">
         <v>50</v>
@@ -13067,7 +13069,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23">
         <f>EDATE(A499,1)</f>
         <v>41548</v>
@@ -13088,7 +13090,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23">
         <f t="shared" si="21"/>
         <v>41579</v>
@@ -13115,7 +13117,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23">
         <f t="shared" si="21"/>
         <v>41609</v>
@@ -13136,7 +13138,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="47" t="s">
         <v>324</v>
       </c>
@@ -13154,7 +13156,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23">
         <v>41640</v>
       </c>
@@ -13174,7 +13176,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23">
         <f>EDATE(A506,1)</f>
         <v>41671</v>
@@ -13201,7 +13203,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
         <v>47</v>
@@ -13218,7 +13220,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="23"/>
       <c r="B509" s="20" t="s">
         <v>265</v>
@@ -13237,7 +13239,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23"/>
       <c r="B510" s="20" t="s">
         <v>44</v>
@@ -13256,7 +13258,7 @@
         <v>41683</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23">
         <f>EDATE(A507,1)</f>
         <v>41699</v>
@@ -13283,7 +13285,7 @@
         <v>41726</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23">
         <f t="shared" ref="A512:A520" si="22">EDATE(A511,1)</f>
         <v>41730</v>
@@ -13304,7 +13306,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23">
         <f t="shared" si="22"/>
         <v>41760</v>
@@ -13325,7 +13327,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23">
         <f t="shared" si="22"/>
         <v>41791</v>
@@ -13346,7 +13348,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23">
         <f t="shared" si="22"/>
         <v>41821</v>
@@ -13367,7 +13369,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23">
         <f t="shared" si="22"/>
         <v>41852</v>
@@ -13392,7 +13394,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23">
         <f t="shared" si="22"/>
         <v>41883</v>
@@ -13413,7 +13415,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23">
         <f t="shared" si="22"/>
         <v>41913</v>
@@ -13434,7 +13436,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="23">
         <f t="shared" si="22"/>
         <v>41944</v>
@@ -13461,7 +13463,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23">
         <f t="shared" si="22"/>
         <v>41974</v>
@@ -13482,7 +13484,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="47" t="s">
         <v>330</v>
       </c>
@@ -13500,7 +13502,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="23">
         <v>42005</v>
       </c>
@@ -13520,7 +13522,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23">
         <f>EDATE(A522,1)</f>
         <v>42036</v>
@@ -13541,7 +13543,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23">
         <f t="shared" ref="A524:A533" si="23">EDATE(A523,1)</f>
         <v>42064</v>
@@ -13566,7 +13568,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23"/>
       <c r="B525" s="20" t="s">
         <v>331</v>
@@ -13583,7 +13585,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23">
         <f>EDATE(A524,1)</f>
         <v>42095</v>
@@ -13608,7 +13610,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23">
         <f t="shared" si="23"/>
         <v>42125</v>
@@ -13635,7 +13637,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23"/>
       <c r="B528" s="20" t="s">
         <v>334</v>
@@ -13652,7 +13654,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23">
         <f>EDATE(A527,1)</f>
         <v>42156</v>
@@ -13673,7 +13675,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23">
         <f t="shared" si="23"/>
         <v>42186</v>
@@ -13694,7 +13696,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23">
         <f t="shared" si="23"/>
         <v>42217</v>
@@ -13721,7 +13723,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23">
         <f t="shared" si="23"/>
         <v>42248</v>
@@ -13742,7 +13744,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23">
         <f t="shared" si="23"/>
         <v>42278</v>
@@ -13769,7 +13771,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>67</v>
@@ -13786,7 +13788,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23"/>
       <c r="B535" s="20" t="s">
         <v>44</v>
@@ -13805,7 +13807,7 @@
         <v>42332</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="23">
         <f>EDATE(A533,1)</f>
         <v>42309</v>
@@ -13826,7 +13828,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="23">
         <f>EDATE(A536,1)</f>
         <v>42339</v>
@@ -13851,7 +13853,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="23"/>
       <c r="B538" s="20" t="s">
         <v>338</v>
@@ -13871,7 +13873,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="47" t="s">
         <v>339</v>
       </c>
@@ -13889,7 +13891,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="23">
         <v>42370</v>
       </c>
@@ -13909,7 +13911,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="23">
         <f>EDATE(A540,1)</f>
         <v>42401</v>
@@ -13934,7 +13936,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="23"/>
       <c r="B542" s="20" t="s">
         <v>291</v>
@@ -13951,7 +13953,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="23">
         <f>EDATE(A541,1)</f>
         <v>42430</v>
@@ -13976,7 +13978,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="23">
         <f t="shared" ref="A544:A555" si="24">EDATE(A543,1)</f>
         <v>42461</v>
@@ -14001,7 +14003,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="23">
         <f t="shared" si="24"/>
         <v>42491</v>
@@ -14022,7 +14024,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23">
         <f t="shared" si="24"/>
         <v>42522</v>
@@ -14043,7 +14045,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="23">
         <f t="shared" si="24"/>
         <v>42552</v>
@@ -14068,7 +14070,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="23">
         <f t="shared" si="24"/>
         <v>42583</v>
@@ -14089,7 +14091,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="23">
         <f t="shared" si="24"/>
         <v>42614</v>
@@ -14110,7 +14112,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="23">
         <f t="shared" si="24"/>
         <v>42644</v>
@@ -14137,7 +14139,7 @@
         <v>42655</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="23"/>
       <c r="B551" s="20" t="s">
         <v>45</v>
@@ -14156,7 +14158,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="23"/>
       <c r="B552" s="20" t="s">
         <v>47</v>
@@ -14173,7 +14175,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="23"/>
       <c r="B553" s="20" t="s">
         <v>56</v>
@@ -14192,7 +14194,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="23">
         <f>EDATE(A550,1)</f>
         <v>42675</v>
@@ -14213,7 +14215,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="23">
         <f t="shared" si="24"/>
         <v>42705</v>
@@ -14234,7 +14236,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="47" t="s">
         <v>346</v>
       </c>
@@ -14252,7 +14254,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="23">
         <v>42736</v>
       </c>
@@ -14272,7 +14274,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="23">
         <f>EDATE(A557,1)</f>
         <v>42767</v>
@@ -14293,7 +14295,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="23">
         <f t="shared" ref="A559:A574" si="25">EDATE(A558,1)</f>
         <v>42795</v>
@@ -14320,7 +14322,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="23"/>
       <c r="B560" s="20" t="s">
         <v>47</v>
@@ -14337,7 +14339,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="23">
         <f>EDATE(A559,1)</f>
         <v>42826</v>
@@ -14358,7 +14360,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="23">
         <f t="shared" si="25"/>
         <v>42856</v>
@@ -14379,7 +14381,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="23">
         <f t="shared" si="25"/>
         <v>42887</v>
@@ -14400,7 +14402,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="23">
         <f t="shared" si="25"/>
         <v>42917</v>
@@ -14421,7 +14423,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23">
         <f t="shared" si="25"/>
         <v>42948</v>
@@ -14446,7 +14448,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="23"/>
       <c r="B566" s="20" t="s">
         <v>50</v>
@@ -14465,7 +14467,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="23"/>
       <c r="B567" s="20" t="s">
         <v>47</v>
@@ -14482,7 +14484,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="23">
         <f>EDATE(A565,1)</f>
         <v>42979</v>
@@ -14509,7 +14511,7 @@
         <v>42992</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="23"/>
       <c r="B569" s="20" t="s">
         <v>50</v>
@@ -14528,7 +14530,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="23"/>
       <c r="B570" s="20" t="s">
         <v>45</v>
@@ -14547,7 +14549,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="23"/>
       <c r="B571" s="20" t="s">
         <v>48</v>
@@ -14566,7 +14568,7 @@
         <v>43083</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="23">
         <f>EDATE(A568,1)</f>
         <v>43009</v>
@@ -14587,7 +14589,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="23">
         <f t="shared" si="25"/>
         <v>43040</v>
@@ -14608,7 +14610,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="23">
         <f t="shared" si="25"/>
         <v>43070</v>
@@ -14633,7 +14635,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="47" t="s">
         <v>43</v>
       </c>
@@ -14655,7 +14657,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="39">
         <v>43101</v>
       </c>
@@ -14675,7 +14677,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="39">
         <v>43132</v>
       </c>
@@ -14701,7 +14703,7 @@
         <v>43134</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="39">
         <v>43160</v>
       </c>
@@ -14727,7 +14729,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="39">
         <v>43191</v>
       </c>
@@ -14751,7 +14753,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="39">
         <v>43221</v>
       </c>
@@ -14771,7 +14773,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="39">
         <v>43252</v>
       </c>
@@ -14797,7 +14799,7 @@
         <v>43274</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="39"/>
       <c r="B582" s="20" t="s">
         <v>47</v>
@@ -14814,7 +14816,7 @@
         <v>43279</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="39"/>
       <c r="B583" s="20" t="s">
         <v>44</v>
@@ -14833,7 +14835,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="39">
         <v>43282</v>
       </c>
@@ -14857,7 +14859,7 @@
         <v>43343</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="39"/>
       <c r="B585" s="20" t="s">
         <v>44</v>
@@ -14876,7 +14878,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="39">
         <v>43313</v>
       </c>
@@ -14896,7 +14898,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="39">
         <v>43344</v>
       </c>
@@ -14922,7 +14924,7 @@
         <v>43353</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="39"/>
       <c r="B588" s="20" t="s">
         <v>44</v>
@@ -14941,7 +14943,7 @@
         <v>43364</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="39">
         <v>43374</v>
       </c>
@@ -14967,7 +14969,7 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="39"/>
       <c r="B590" s="20" t="s">
         <v>48</v>
@@ -14986,7 +14988,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="39">
         <v>43405</v>
       </c>
@@ -15012,7 +15014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="39"/>
       <c r="B592" s="20" t="s">
         <v>44</v>
@@ -15031,7 +15033,7 @@
         <v>43419</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="39">
         <v>43435</v>
       </c>
@@ -15057,7 +15059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="47" t="s">
         <v>52</v>
       </c>
@@ -15075,7 +15077,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="39">
         <v>43466</v>
       </c>
@@ -15095,7 +15097,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="39">
         <v>43497</v>
       </c>
@@ -15115,7 +15117,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="39">
         <v>43525</v>
       </c>
@@ -15141,7 +15143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="39"/>
       <c r="B598" s="20" t="s">
         <v>53</v>
@@ -15160,7 +15162,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="39">
         <v>43556</v>
       </c>
@@ -15180,7 +15182,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="39">
         <v>43586</v>
       </c>
@@ -15200,7 +15202,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="39">
         <v>43617</v>
       </c>
@@ -15220,7 +15222,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="39">
         <v>43647</v>
       </c>
@@ -15240,7 +15242,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="39">
         <v>43678</v>
       </c>
@@ -15264,7 +15266,7 @@
         <v>43708</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="39"/>
       <c r="B604" s="20" t="s">
         <v>44</v>
@@ -15283,7 +15285,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="39"/>
       <c r="B605" s="20" t="s">
         <v>47</v>
@@ -15300,7 +15302,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="39"/>
       <c r="B606" s="20" t="s">
         <v>44</v>
@@ -15319,7 +15321,7 @@
         <v>43692</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="39"/>
       <c r="B607" s="20" t="s">
         <v>44</v>
@@ -15338,7 +15340,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="39">
         <v>43709</v>
       </c>
@@ -15364,7 +15366,7 @@
         <v>43721</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="39"/>
       <c r="B609" s="20" t="s">
         <v>44</v>
@@ -15383,7 +15385,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="39">
         <v>43739</v>
       </c>
@@ -15409,7 +15411,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="39"/>
       <c r="B611" s="20" t="s">
         <v>56</v>
@@ -15428,7 +15430,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="39">
         <v>43770</v>
       </c>
@@ -15448,7 +15450,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="39">
         <v>43800</v>
       </c>
@@ -15468,7 +15470,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="47" t="s">
         <v>59</v>
       </c>
@@ -15486,7 +15488,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="39">
         <v>43831</v>
       </c>
@@ -15510,7 +15512,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="39"/>
       <c r="B616" s="20" t="s">
         <v>44</v>
@@ -15527,7 +15529,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="39">
         <v>43862</v>
       </c>
@@ -15547,7 +15549,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="39">
         <v>43891</v>
       </c>
@@ -15567,7 +15569,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="39">
         <v>43922</v>
       </c>
@@ -15587,7 +15589,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="39">
         <v>43952</v>
       </c>
@@ -15607,7 +15609,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="39">
         <v>43983</v>
       </c>
@@ -15627,7 +15629,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="39">
         <v>44013</v>
       </c>
@@ -15647,7 +15649,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="39">
         <v>44044</v>
       </c>
@@ -15673,7 +15675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="39"/>
       <c r="B624" s="20" t="s">
         <v>50</v>
@@ -15692,7 +15694,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="39">
         <v>44075</v>
       </c>
@@ -15716,7 +15718,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="39">
         <v>44105</v>
       </c>
@@ -15742,7 +15744,7 @@
         <v>44112</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="39">
         <v>44136</v>
       </c>
@@ -15768,7 +15770,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="39">
         <v>44166</v>
       </c>
@@ -15792,7 +15794,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="47" t="s">
         <v>66</v>
       </c>
@@ -15810,7 +15812,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="39">
         <v>44197</v>
       </c>
@@ -15830,7 +15832,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="39">
         <v>44228</v>
       </c>
@@ -15850,7 +15852,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="39">
         <v>44256</v>
       </c>
@@ -15870,7 +15872,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="39">
         <v>44287</v>
       </c>
@@ -15894,7 +15896,7 @@
         <v>44303</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="39">
         <v>44317</v>
       </c>
@@ -15914,7 +15916,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="39">
         <v>44348</v>
       </c>
@@ -15934,7 +15936,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="39">
         <v>44378</v>
       </c>
@@ -15954,7 +15956,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="39">
         <v>44409</v>
       </c>
@@ -15974,7 +15976,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="39">
         <v>44440</v>
       </c>
@@ -15994,7 +15996,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="39">
         <v>44470</v>
       </c>
@@ -16020,7 +16022,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="39"/>
       <c r="B640" s="20" t="s">
         <v>67</v>
@@ -16037,7 +16039,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="39">
         <v>44501</v>
       </c>
@@ -16057,7 +16059,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="39">
         <v>44531</v>
       </c>
@@ -16077,7 +16079,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="47" t="s">
         <v>70</v>
       </c>
@@ -16095,7 +16097,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="39">
         <v>44562</v>
       </c>
@@ -16115,7 +16117,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="39">
         <v>44593</v>
       </c>
@@ -16141,7 +16143,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="39">
         <v>44621</v>
       </c>
@@ -16165,7 +16167,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="39">
         <v>44652</v>
       </c>
@@ -16185,7 +16187,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="39">
         <v>44682</v>
       </c>
@@ -16205,7 +16207,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="39">
         <v>44713</v>
       </c>
@@ -16225,7 +16227,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="39">
         <v>44743</v>
       </c>
@@ -16245,7 +16247,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="39">
         <v>44774</v>
       </c>
@@ -16269,7 +16271,7 @@
         <v>44804</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="39">
         <v>44805</v>
       </c>
@@ -16289,7 +16291,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="39">
         <v>44835</v>
       </c>
@@ -16315,7 +16317,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="39">
         <v>44866</v>
       </c>
@@ -16339,7 +16341,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="39"/>
       <c r="B655" s="20" t="s">
         <v>47</v>
@@ -16359,7 +16361,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="39"/>
       <c r="B656" s="20" t="s">
         <v>45</v>
@@ -16381,7 +16383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="39">
         <v>44896</v>
       </c>
@@ -16405,7 +16407,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="47" t="s">
         <v>73</v>
       </c>
@@ -16423,7 +16425,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="39">
         <v>44927</v>
       </c>
@@ -16443,7 +16445,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="39">
         <v>44958</v>
       </c>
@@ -16463,7 +16465,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="39">
         <v>44986</v>
       </c>
@@ -16483,7 +16485,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="39">
         <v>45017</v>
       </c>
@@ -16507,7 +16509,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="39"/>
       <c r="B663" s="20" t="s">
         <v>44</v>
@@ -16529,7 +16531,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="39">
         <v>45047</v>
       </c>
@@ -16555,7 +16557,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="39">
         <v>45078</v>
       </c>
@@ -16579,7 +16581,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="39">
         <v>45108</v>
       </c>
@@ -16599,13 +16601,15 @@
       </c>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
-      <c r="K666" s="68" t="s">
+      <c r="K666" s="57" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="39"/>
-      <c r="B667" s="20"/>
+      <c r="B667" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C667" s="13"/>
       <c r="D667" s="38"/>
       <c r="E667" s="9"/>
@@ -16614,12 +16618,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H667" s="38"/>
+      <c r="H667" s="38">
+        <v>5</v>
+      </c>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
-      <c r="K667" s="20"/>
-    </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K667" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="39"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -16635,7 +16643,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="39"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -16651,7 +16659,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="39"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -16667,7 +16675,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="39"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -16683,7 +16691,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="39"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -16699,7 +16707,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="39"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -16715,7 +16723,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="39"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -16731,7 +16739,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="39"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -16747,7 +16755,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="39"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -16763,7 +16771,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="39"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -16779,7 +16787,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="39"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -16795,7 +16803,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="39"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -16811,7 +16819,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="39"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -16827,7 +16835,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="39"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -16843,7 +16851,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="39"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -16859,7 +16867,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="39"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -16875,7 +16883,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="39"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -16891,7 +16899,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="39"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -16907,7 +16915,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="39"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -16923,7 +16931,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="39"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -16939,7 +16947,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="39"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -16955,7 +16963,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="39"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -16971,7 +16979,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="39"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -16987,7 +16995,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="39"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17003,7 +17011,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="39"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17019,7 +17027,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="39"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17035,7 +17043,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="39"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17051,7 +17059,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="39"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17067,7 +17075,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="39"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17083,7 +17091,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="39"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17099,7 +17107,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="39"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17115,7 +17123,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="39"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17131,7 +17139,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="39"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17147,7 +17155,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="39"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17163,7 +17171,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="39"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17179,7 +17187,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="39"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -17195,7 +17203,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="39"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -17211,7 +17219,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="39"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -17227,7 +17235,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="39"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -17243,7 +17251,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="39"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -17259,7 +17267,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="39"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -17275,7 +17283,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="39"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -17291,7 +17299,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="39"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -17307,7 +17315,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="39"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -17323,7 +17331,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="15"/>
       <c r="C712" s="41"/>
@@ -17354,10 +17362,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17380,41 +17388,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>24</v>
       </c>
@@ -17443,7 +17451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -17469,17 +17477,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="32"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -17493,14 +17501,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -17527,7 +17535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -17553,7 +17561,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -17579,7 +17587,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -17605,7 +17613,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -17631,7 +17639,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -17657,7 +17665,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -17683,7 +17691,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -17709,7 +17717,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -17729,7 +17737,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -17749,7 +17757,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -17769,7 +17777,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -17790,7 +17798,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -17811,7 +17819,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -17832,7 +17840,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -17853,7 +17861,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -17874,7 +17882,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -17895,7 +17903,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -17916,7 +17924,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -17937,7 +17945,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -17958,7 +17966,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -17979,7 +17987,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -18000,7 +18008,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -18021,7 +18029,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -18042,7 +18050,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -18063,7 +18071,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -18084,7 +18092,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -18105,7 +18113,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -18126,7 +18134,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -18147,7 +18155,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -18168,7 +18176,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -18189,7 +18197,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -18198,7 +18206,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -18207,7 +18215,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -18216,7 +18224,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -18225,7 +18233,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -18234,7 +18242,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -18243,7 +18251,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -18252,7 +18260,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -18261,7 +18269,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -18270,7 +18278,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -18279,7 +18287,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -18288,7 +18296,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -18297,7 +18305,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -18306,7 +18314,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -18315,7 +18323,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -18324,7 +18332,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -18333,7 +18341,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -18342,7 +18350,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -18351,7 +18359,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -18360,7 +18368,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -18369,7 +18377,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -18378,7 +18386,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -18387,7 +18395,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -18396,7 +18404,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -18405,7 +18413,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -18414,7 +18422,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -18423,7 +18431,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -18432,7 +18440,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -18441,7 +18449,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -18450,7 +18458,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CASUAL-REGULAR FINAL/ANACAY, ANICETA.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/ANACAY, ANICETA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="357">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2161,7 +2161,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2160" topLeftCell="A657" activePane="bottomLeft"/>
       <selection activeCell="J4" sqref="J4:K4"/>
-      <selection pane="bottomLeft" activeCell="I667" sqref="I667"/>
+      <selection pane="bottomLeft" activeCell="G668" sqref="G668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2320,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>175.27399999999989</v>
+        <v>176.52399999999989</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2330,7 +2330,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>178.75</v>
+        <v>179</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16588,13 +16588,15 @@
       <c r="B666" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="C666" s="13"/>
+      <c r="C666" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D666" s="38"/>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G666" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H666" s="38">
         <v>16</v>
@@ -16629,7 +16631,9 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="39"/>
-      <c r="B668" s="20"/>
+      <c r="B668" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C668" s="13"/>
       <c r="D668" s="38"/>
       <c r="E668" s="9"/>
@@ -16638,10 +16642,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H668" s="38"/>
+      <c r="H668" s="38">
+        <v>1</v>
+      </c>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
-      <c r="K668" s="20"/>
+      <c r="K668" s="48">
+        <v>45138</v>
+      </c>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="39"/>
